--- a/data/Bloomberg_template/GHG_emissions_y_0.xlsx
+++ b/data/Bloomberg_template/GHG_emissions_y_0.xlsx
@@ -15,48 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
-  <si>
-    <t>YAL AU Equity 2018</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2019</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2020</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2021</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2022</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2023</t>
-  </si>
-  <si>
-    <t>YAL AU Equity 2024</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2018</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2019</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2020</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2021</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2022</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2023</t>
-  </si>
-  <si>
-    <t>YULIAZ CH Equity 2024</t>
-  </si>
   <si>
     <t>YAAZFZ CH Equity 2018</t>
   </si>
@@ -79,25 +37,67 @@
     <t>YAAZFZ CH Equity 2024</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2018</t>
+    <t>YNMHGZ CH Equity 2018</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2019</t>
+    <t>YNMHGZ CH Equity 2019</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2020</t>
+    <t>YNMHGZ CH Equity 2020</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2021</t>
+    <t>YNMHGZ CH Equity 2021</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2022</t>
+    <t>YNMHGZ CH Equity 2022</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2023</t>
+    <t>YNMHGZ CH Equity 2023</t>
   </si>
   <si>
-    <t>YAKG RM Equity 2024</t>
+    <t>YNMHGZ CH Equity 2024</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2018</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2019</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2020</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2021</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2022</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2023</t>
+  </si>
+  <si>
+    <t>YPFD AR Equity 2024</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2018</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2019</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2020</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2021</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2022</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2023</t>
+  </si>
+  <si>
+    <t>YCEHGZ CH Equity 2024</t>
   </si>
   <si>
     <t>YRGL RU Equity 2018</t>
@@ -163,48 +163,6 @@
     <t>YIGCLZ CH Equity 2024</t>
   </si>
   <si>
-    <t>YPFD AR Equity 2018</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2019</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2020</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2021</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2022</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2023</t>
-  </si>
-  <si>
-    <t>YPFD AR Equity 2024</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2018</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2019</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2020</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2021</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2022</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2023</t>
-  </si>
-  <si>
-    <t>YCEHGZ CH Equity 2024</t>
-  </si>
-  <si>
     <t>YIMACZ CH Equity 2018</t>
   </si>
   <si>
@@ -226,25 +184,67 @@
     <t>YIMACZ CH Equity 2024</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2018</t>
+    <t>YAKG RM Equity 2018</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2019</t>
+    <t>YAKG RM Equity 2019</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2020</t>
+    <t>YAKG RM Equity 2020</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2021</t>
+    <t>YAKG RM Equity 2021</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2022</t>
+    <t>YAKG RM Equity 2022</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2023</t>
+    <t>YAKG RM Equity 2023</t>
   </si>
   <si>
-    <t>YNMHGZ CH Equity 2024</t>
+    <t>YAKG RM Equity 2024</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2018</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2019</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2020</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2021</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2022</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2023</t>
+  </si>
+  <si>
+    <t>YULIAZ CH Equity 2024</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2018</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2019</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2020</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2021</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2022</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2023</t>
+  </si>
+  <si>
+    <t>YAL AU Equity 2024</t>
   </si>
 </sst>
 </file>
@@ -587,115 +587,115 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C1">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D1">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T1">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U1">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V1">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X1">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y1">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB1">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC1">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -704,115 +704,115 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC2">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -821,115 +821,115 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -938,115 +938,115 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -1055,115 +1055,115 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1172,115 +1172,115 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,115 +1289,115 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>BDP("YAL AU Equity", "NAME")</f>
+        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -1406,115 +1406,115 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -1523,115 +1523,115 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -1640,115 +1640,115 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -1757,115 +1757,115 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -1874,115 +1874,115 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -1991,115 +1991,115 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2108,115 +2108,115 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>BDP("YULIAZ CH Equity", "NAME")</f>
+        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -2225,115 +2225,115 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -2342,115 +2342,115 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -2459,115 +2459,115 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -2576,115 +2576,115 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -2693,115 +2693,115 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB19">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -2810,115 +2810,115 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -2927,115 +2927,115 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>BDH("YAAZFZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>BDH("YAAZFZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U21">
-        <f>BDH("YAAZFZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V21">
-        <f>BDH("YAAZFZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>BDH("YAAZFZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X21">
-        <f>BDP("YAAZFZ CH Equity", "NAME")</f>
+        <f>BDP("YPFD AR Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f>BDH("YAAZFZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f>BDH("YAAZFZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f>BDH("YAAZFZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB21">
-        <f>BDH("YAAZFZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f>BDH("YAAZFZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -3044,115 +3044,115 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -3161,115 +3161,115 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V23">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -3278,115 +3278,115 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U24">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V24">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X24">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -3395,115 +3395,115 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W25">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X25">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -3512,115 +3512,115 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -3629,115 +3629,115 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -3746,115 +3746,115 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>BDP("YAKG RM Equity", "NAME")</f>
+        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -6320,115 +6320,115 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D50">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T50">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U50">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V50">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB50">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -6437,115 +6437,115 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D51">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T51">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V51">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA51">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB51">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -6554,115 +6554,115 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C52">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D52">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T52">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V52">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA52">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB52">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -6671,115 +6671,115 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D53">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T53">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U53">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V53">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA53">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB53">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -6788,115 +6788,115 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C54">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T54">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U54">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V54">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA54">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB54">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -6905,115 +6905,115 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C55">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D55">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T55">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U55">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V55">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA55">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC55">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -7022,115 +7022,115 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C56">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D56">
-        <f>BDH("YPFD AR Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T56">
-        <f>BDH("YPFD AR Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f>BDH("YPFD AR Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V56">
-        <f>BDH("YPFD AR Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f>BDH("YPFD AR Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f>BDP("YPFD AR Equity", "NAME")</f>
+        <f>BDP("YIMACZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f>BDH("YPFD AR Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f>BDH("YPFD AR Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA56">
-        <f>BDH("YPFD AR Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB56">
-        <f>BDH("YPFD AR Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC56">
-        <f>BDH("YPFD AR Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -7139,115 +7139,115 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T57">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U57">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V57">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA57">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC57">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -7256,115 +7256,115 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D58">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T58">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U58">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V58">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB58">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC58">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -7373,115 +7373,115 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C59">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D59">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T59">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U59">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V59">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB59">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC59">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -7490,115 +7490,115 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C60">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D60">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T60">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U60">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V60">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB60">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -7607,115 +7607,115 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T61">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U61">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V61">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W61">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB61">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -7724,115 +7724,115 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C62">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T62">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U62">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V62">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W62">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA62">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -7841,115 +7841,115 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D63">
-        <f>BDH("YCEHGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T63">
-        <f>BDH("YCEHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f>BDH("YCEHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V63">
-        <f>BDH("YCEHGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f>BDH("YCEHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f>BDP("YCEHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAKG RM Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f>BDH("YCEHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f>BDH("YCEHGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f>BDH("YCEHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f>BDH("YCEHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f>BDH("YCEHGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YAKG RM Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -7958,115 +7958,115 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C64">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T64">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V64">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W64">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X64">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y64">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA64">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB64">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC64">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -8075,115 +8075,115 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C65">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T65">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U65">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V65">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W65">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X65">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y65">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA65">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC65">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -8192,115 +8192,115 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T66">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U66">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V66">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA66">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC66">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -8309,115 +8309,115 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T67">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U67">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V67">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X67">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA67">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -8426,115 +8426,115 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T68">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U68">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V68">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X68">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y68">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA68">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC68">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -8543,115 +8543,115 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C69">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T69">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U69">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V69">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W69">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X69">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y69">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z69">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA69">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB69">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC69">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -8660,115 +8660,115 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>BDH("YIMACZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T70">
-        <f>BDH("YIMACZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U70">
-        <f>BDH("YIMACZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V70">
-        <f>BDH("YIMACZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W70">
-        <f>BDH("YIMACZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X70">
-        <f>BDP("YIMACZ CH Equity", "NAME")</f>
+        <f>BDP("YULIAZ CH Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y70">
-        <f>BDH("YIMACZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f>BDH("YIMACZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA70">
-        <f>BDH("YIMACZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB70">
-        <f>BDH("YIMACZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC70">
-        <f>BDH("YIMACZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YULIAZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
@@ -8777,115 +8777,115 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="D71">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="H71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="L71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="M71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="N71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="O71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="P71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="R71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="S71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="T71">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="U71">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="V71">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="W71">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="X71">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y71">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="Z71">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AA71">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AB71">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2018")</f>
         <v>0</v>
       </c>
       <c r="AC71">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2018")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2018")</f>
         <v>0</v>
       </c>
     </row>
@@ -8894,115 +8894,115 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="D72">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="H72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="K72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="L72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="M72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="N72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="O72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="P72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="R72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="S72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="T72">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="U72">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="V72">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="W72">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="X72">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y72">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="Z72">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AA72">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AB72">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2019")</f>
         <v>0</v>
       </c>
       <c r="AC72">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2019")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2019")</f>
         <v>0</v>
       </c>
     </row>
@@ -9011,115 +9011,115 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="D73">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="G73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="H73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="K73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="M73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="N73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="O73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="P73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="R73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="S73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="T73">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="U73">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="V73">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="W73">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="X73">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y73">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="Z73">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AA73">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AB73">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2020")</f>
         <v>0</v>
       </c>
       <c r="AC73">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2020")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2020")</f>
         <v>0</v>
       </c>
     </row>
@@ -9128,115 +9128,115 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="G74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="H74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="J74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="K74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="M74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="N74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="O74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="P74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="R74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="S74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="T74">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="U74">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="V74">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="W74">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="X74">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y74">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="Z74">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AA74">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AB74">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2021")</f>
         <v>0</v>
       </c>
       <c r="AC74">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2021")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2021")</f>
         <v>0</v>
       </c>
     </row>
@@ -9245,115 +9245,115 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="G75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="J75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="K75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="L75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="M75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="N75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="O75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="P75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="R75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="S75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="T75">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="U75">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="V75">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="W75">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="X75">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y75">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="Z75">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AA75">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AB75">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2022")</f>
         <v>0</v>
       </c>
       <c r="AC75">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2022")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2022")</f>
         <v>0</v>
       </c>
     </row>
@@ -9362,115 +9362,115 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="K76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="M76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="P76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="U76">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="V76">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="W76">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="X76">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y76">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="Z76">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AA76">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AB76">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2023")</f>
         <v>0</v>
       </c>
       <c r="AC76">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2023")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2023")</f>
         <v>0</v>
       </c>
     </row>
@@ -9479,115 +9479,115 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_1", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_1", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_2_LOCATION_BASED", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="D77">
-        <f>BDH("YNMHGZ CH Equity", "GHG_SCOPE_3", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "GHG_SCOPE_3", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PURCH_GOODS_SRVCS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_CAPITAL_GOODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="G77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FUEL_ENRG_RELATD_ACT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="H77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="I77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_WASTE_GENRTD_IN_OP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_BUSINESS_TRVL_EMISSIONS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="K77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMPLOYEE_COMMUTING", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="L77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_UPSTREAM_LEASED_ASSETS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="M77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_TRANS_DIST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="N77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_PRCSS_OF_SOLD_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="O77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_USE_SOLD_PRODUCTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="P77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EOL_TRTMNT_PRODS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_DWNSTRM_LEASE_ASSTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="R77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_FRANCHISES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="S77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_INVESTMENTS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="T77">
-        <f>BDH("YNMHGZ CH Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SCOPE_3_EMISSIONS_OTHER", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="U77">
-        <f>BDH("YNMHGZ CH Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "ENTERPRISE_VALUE", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="V77">
-        <f>BDH("YNMHGZ CH Equity", "IS_COMP_SALES", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "IS_COMP_SALES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="W77">
-        <f>BDH("YNMHGZ CH Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "HISTORICAL_MARKET_CAP", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="X77">
-        <f>BDP("YNMHGZ CH Equity", "NAME")</f>
+        <f>BDP("YAL AU Equity", "NAME")</f>
         <v>0</v>
       </c>
       <c r="Y77">
-        <f>BDH("YNMHGZ CH Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "IS_AVG_NUM_SH_FOR_EPS", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="Z77">
-        <f>BDH("YNMHGZ CH Equity", "PX_LAST", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "PX_LAST", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AA77">
-        <f>BDH("YNMHGZ CH Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "SHORT_AND_LONG_TERM_DEBT", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AB77">
-        <f>BDH("YNMHGZ CH Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "CASH_AND_MARKETABLE_SECURITIES", "FY 2024")</f>
         <v>0</v>
       </c>
       <c r="AC77">
-        <f>BDH("YNMHGZ CH Equity", "BS_TOT_ASSET", "FY 2024")</f>
+        <f>BDH("YAL AU Equity", "BS_TOT_ASSET", "FY 2024")</f>
         <v>0</v>
       </c>
     </row>
